--- a/Documentation and Final Report/GUDE Usability Test Results.xlsx
+++ b/Documentation and Final Report/GUDE Usability Test Results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Quick and dirty initial empirical evaluation</t>
   </si>
@@ -19,6 +19,9 @@
     <t>Results measured by time taken in seconds, extra notes about failures, long pauses or questions are noted below.</t>
   </si>
   <si>
+    <t>Each test starts from the original sign in page</t>
+  </si>
+  <si>
     <t>Tasks</t>
   </si>
   <si>
@@ -82,10 +85,25 @@
     <t>Feedback from users during test</t>
   </si>
   <si>
-    <t>Show back means go back?</t>
-  </si>
-  <si>
-    <t>Thought find page was different page even though they were already on it</t>
+    <t>1 person thought that "Show back" meant go back?</t>
+  </si>
+  <si>
+    <t>1 person attempted to click the "Find Decks" page several times without realising they were actually on it already</t>
+  </si>
+  <si>
+    <t>1 person said that they expected the language settings to be under a standard set of settings and that the symbol used looks like it means "translate"</t>
+  </si>
+  <si>
+    <t>2 people had a scroll bar issue thinking that more decks where below when in fact they werent</t>
+  </si>
+  <si>
+    <t>1 person didn't understand the scoring system</t>
+  </si>
+  <si>
+    <t>1 person expected the statistics page to be on the main page on the mobile version</t>
+  </si>
+  <si>
+    <t>2 people said that the consistency of the order of the logos for progress, language, sync etc. put them off between systems</t>
   </si>
 </sst>
 </file>
@@ -172,35 +190,55 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2"/>
+      <c r="C5" s="2">
+        <v>8.67</v>
+      </c>
+      <c r="D5" s="2">
+        <v>11.21</v>
+      </c>
+      <c r="E5" s="2">
+        <v>15.28</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4.31</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4.53</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2">
@@ -221,12 +259,27 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10.23</v>
+      </c>
+      <c r="D7" s="2">
+        <v>12.26</v>
+      </c>
+      <c r="E7" s="2">
+        <v>21.46</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9.03</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3.56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2">
         <v>4.23</v>
@@ -246,37 +299,67 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6.39</v>
+      </c>
+      <c r="D9" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>17.75</v>
+      </c>
+      <c r="F9" s="2">
+        <v>8.75</v>
+      </c>
+      <c r="G9" s="2">
+        <v>7.07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2">
-        <v>22.98</v>
+        <v>4.09</v>
       </c>
       <c r="D10" s="2">
-        <v>13.96</v>
+        <v>10.99</v>
       </c>
       <c r="E10" s="2">
-        <v>23.91</v>
+        <v>10.03</v>
       </c>
       <c r="F10" s="2">
-        <v>7.99</v>
+        <v>5.98</v>
       </c>
       <c r="G10" s="2">
-        <v>5.1</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4.75</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9.51</v>
+      </c>
+      <c r="E11" s="2">
+        <v>18.09</v>
+      </c>
+      <c r="F11" s="2">
+        <v>9.85</v>
+      </c>
+      <c r="G11" s="2">
+        <v>6.47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2">
         <v>15.96</v>
@@ -296,12 +379,27 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10.67</v>
+      </c>
+      <c r="D13" s="2">
+        <v>21.47</v>
+      </c>
+      <c r="E13" s="2">
+        <v>38.5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>9.7</v>
+      </c>
+      <c r="G13" s="2">
+        <v>7.82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2">
         <v>55.2</v>
@@ -321,13 +419,13 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -387,22 +485,47 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation and Final Report/GUDE Usability Test Results.xlsx
+++ b/Documentation and Final Report/GUDE Usability Test Results.xlsx
@@ -22,9 +22,6 @@
     <t>Each test starts from the original sign in page</t>
   </si>
   <si>
-    <t>Tasks</t>
-  </si>
-  <si>
     <t>Sign in and sync your data</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>2 people said that the consistency of the order of the logos for progress, language, sync etc. put them off between systems</t>
+  </si>
+  <si>
+    <t>3 people expected that the text boxes for the language options where drop down boxes</t>
   </si>
 </sst>
 </file>
@@ -196,6 +196,7 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -211,221 +212,216 @@
       <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8.67</v>
+      </c>
       <c r="C5" s="2">
-        <v>8.67</v>
+        <v>11.21</v>
       </c>
       <c r="D5" s="2">
-        <v>11.21</v>
+        <v>15.28</v>
       </c>
       <c r="E5" s="2">
-        <v>15.28</v>
+        <v>4.31</v>
       </c>
       <c r="F5" s="2">
-        <v>4.31</v>
-      </c>
-      <c r="G5" s="2">
         <v>4.53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>25.61</v>
+      </c>
       <c r="C6" s="2">
-        <v>25.61</v>
+        <v>9.06</v>
       </c>
       <c r="D6" s="2">
-        <v>9.06</v>
+        <v>18.5</v>
       </c>
       <c r="E6" s="2">
-        <v>18.5</v>
+        <v>5.0</v>
       </c>
       <c r="F6" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="G6" s="2">
         <v>1.96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>10.23</v>
       </c>
       <c r="C7" s="2">
-        <v>10.23</v>
+        <v>12.26</v>
       </c>
       <c r="D7" s="2">
-        <v>12.26</v>
+        <v>21.46</v>
       </c>
       <c r="E7" s="2">
-        <v>21.46</v>
+        <v>9.03</v>
       </c>
       <c r="F7" s="2">
-        <v>9.03</v>
-      </c>
-      <c r="G7" s="2">
         <v>3.56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4.23</v>
       </c>
       <c r="C8" s="2">
-        <v>4.23</v>
+        <v>10.09</v>
       </c>
       <c r="D8" s="2">
-        <v>10.09</v>
+        <v>19.27</v>
       </c>
       <c r="E8" s="2">
-        <v>19.27</v>
+        <v>5.95</v>
       </c>
       <c r="F8" s="2">
-        <v>5.95</v>
-      </c>
-      <c r="G8" s="2">
         <v>3.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6.39</v>
       </c>
       <c r="C9" s="2">
-        <v>6.39</v>
+        <v>12.6</v>
       </c>
       <c r="D9" s="2">
-        <v>12.6</v>
+        <v>17.75</v>
       </c>
       <c r="E9" s="2">
-        <v>17.75</v>
+        <v>8.75</v>
       </c>
       <c r="F9" s="2">
-        <v>8.75</v>
-      </c>
-      <c r="G9" s="2">
         <v>7.07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4.09</v>
       </c>
       <c r="C10" s="2">
-        <v>4.09</v>
+        <v>10.99</v>
       </c>
       <c r="D10" s="2">
-        <v>10.99</v>
+        <v>10.03</v>
       </c>
       <c r="E10" s="2">
-        <v>10.03</v>
+        <v>5.98</v>
       </c>
       <c r="F10" s="2">
-        <v>5.98</v>
-      </c>
-      <c r="G10" s="2">
         <v>4.16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4.75</v>
       </c>
       <c r="C11" s="2">
-        <v>4.75</v>
+        <v>9.51</v>
       </c>
       <c r="D11" s="2">
-        <v>9.51</v>
+        <v>18.09</v>
       </c>
       <c r="E11" s="2">
-        <v>18.09</v>
+        <v>9.85</v>
       </c>
       <c r="F11" s="2">
-        <v>9.85</v>
-      </c>
-      <c r="G11" s="2">
         <v>6.47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
+        <v>15.96</v>
       </c>
       <c r="C12" s="2">
-        <v>15.96</v>
+        <v>11.32</v>
       </c>
       <c r="D12" s="2">
-        <v>11.32</v>
+        <v>22.52</v>
       </c>
       <c r="E12" s="2">
-        <v>22.52</v>
+        <v>3.02</v>
       </c>
       <c r="F12" s="2">
-        <v>3.02</v>
-      </c>
-      <c r="G12" s="2">
         <v>4.11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10.67</v>
       </c>
       <c r="C13" s="2">
-        <v>10.67</v>
+        <v>21.47</v>
       </c>
       <c r="D13" s="2">
-        <v>21.47</v>
+        <v>38.5</v>
       </c>
       <c r="E13" s="2">
-        <v>38.5</v>
+        <v>9.7</v>
       </c>
       <c r="F13" s="2">
-        <v>9.7</v>
-      </c>
-      <c r="G13" s="2">
         <v>7.82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B14" s="2">
+        <v>55.2</v>
       </c>
       <c r="C14" s="2">
-        <v>55.2</v>
+        <v>16.67</v>
       </c>
       <c r="D14" s="2">
-        <v>16.67</v>
+        <v>61.74</v>
       </c>
       <c r="E14" s="2">
-        <v>61.74</v>
+        <v>10.23</v>
       </c>
       <c r="F14" s="2">
-        <v>10.23</v>
-      </c>
-      <c r="G14" s="2">
         <v>8.26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -485,46 +481,51 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Documentation and Final Report/GUDE Usability Test Results.xlsx
+++ b/Documentation and Final Report/GUDE Usability Test Results.xlsx
@@ -171,12 +171,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.57"/>
-    <col customWidth="1" min="2" max="2" width="34.57"/>
-    <col customWidth="1" min="3" max="3" width="34.86"/>
-    <col customWidth="1" min="4" max="4" width="16.43"/>
-    <col customWidth="1" min="5" max="5" width="29.43"/>
-    <col customWidth="1" min="6" max="6" width="27.43"/>
+    <col customWidth="1" min="1" max="1" width="19.14"/>
+    <col customWidth="1" min="2" max="2" width="30.29"/>
+    <col customWidth="1" min="3" max="3" width="16.86"/>
+    <col customWidth="1" min="4" max="4" width="30.0"/>
+    <col customWidth="1" min="5" max="5" width="27.29"/>
+    <col customWidth="1" min="6" max="6" width="25.0"/>
     <col customWidth="1" min="7" max="7" width="34.14"/>
   </cols>
   <sheetData>
@@ -484,48 +484,48 @@
         <v>21</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
     </row>
